--- a/data-analyst.xlsx
+++ b/data-analyst.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>location</t>
   </si>
@@ -34,100 +34,91 @@
     <t xml:space="preserve"> 33332 Gütersloh                                                (10 km)                                            </t>
   </si>
   <si>
-    <t xml:space="preserve"> 48155 Münster-​Hafen                                                (55 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51063 Mülheim                                                (137 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50667 Köln Altstadt                                                (140 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60311 Altstadt                                                (189 km)                                            </t>
+    <t xml:space="preserve"> 40235 Bezirk 7                                                (127 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60311 Innenstadt                                                (189 km)                                            </t>
   </si>
   <si>
     <t xml:space="preserve"> 65185 Wiesbaden                                                (193 km)                                            </t>
   </si>
   <si>
-    <t xml:space="preserve"> 55246 Mainz-​Kostheim                                                (199 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20095 Hamburg Altstadt                                                (221 km)                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 69115 Heidelberg                                                (267 km)                                            </t>
   </si>
   <si>
-    <t xml:space="preserve"> 70173 Stuttgart-​Mitte                                                (340 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 18:28</t>
+    <t xml:space="preserve"> 04105 Mitte                                                (276 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74206 Bad Wimpfen                                                (292 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10178 Mitte                                                (349 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80339 Ludwigsvorstadt-​Isarvorstadt                                                (466 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 12:48</t>
   </si>
   <si>
     <t xml:space="preserve">                                        18.11.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">                                        15.11.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 16:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Heute, 08:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 08:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 14:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 11:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 18:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 16:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 07:19</t>
-  </si>
-  <si>
-    <t>Business Intelligence Analyst - Data Science / Visualisierung / K</t>
+    <t xml:space="preserve">                                        Heute, 10:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 10:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 18:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 16:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 10:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 18:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 12:04</t>
+  </si>
+  <si>
+    <t>Data Analyst für Datenmodellierung und Kundenbetreuung (m/w/d) i</t>
   </si>
   <si>
     <t>Data Analyst (m/w/d) Power BI mit Remote-Anteil</t>
   </si>
   <si>
-    <t>Data Analyst für Datenmodellierung und Kundenbetreuung (m/w/d) i</t>
-  </si>
-  <si>
-    <t>(Junior) Data Analyst (m/w/d) Hotel (Münster)</t>
-  </si>
-  <si>
-    <t>Teilzeit Product, Data &amp; Trend Analyst (w/m/d)</t>
-  </si>
-  <si>
-    <t>Data Analyst/Data Consultant (m/w/d)</t>
-  </si>
-  <si>
-    <t>Junior Business/Data Analyst (m/w/d) in 60311</t>
+    <t>Data Analyst (m/w/d)</t>
+  </si>
+  <si>
+    <t>Data Analyst SAP Business Intelligence / BI (w/m/d)</t>
+  </si>
+  <si>
+    <t>Data Analyst - Marketing (m/w/d) in 65185</t>
   </si>
   <si>
     <t>Data Analyst für Marketing in der Softwareentwicklung (m/w/d) in</t>
   </si>
   <si>
-    <t>(Junior) Data Analyst (m/w/d) | Wiesbaden</t>
-  </si>
-  <si>
-    <t>Data Analyst (m/w/d) | Hamburg</t>
-  </si>
-  <si>
     <t>Data Analyst (m/w/d) (Voltimum)</t>
   </si>
   <si>
-    <t>Data Analyst / Referent - Reporting &amp; Performance Manage Stuttgar</t>
+    <t>Data &amp; Business Intelligence Analyst (m/w/d) Reise (Leipzig)</t>
+  </si>
+  <si>
+    <t>Junior Data Analyst Revision (m/w/d) in 74206</t>
+  </si>
+  <si>
+    <t>Werkstudent Data Analyst (w/m/d) (Deutsche Bahn AG)</t>
+  </si>
+  <si>
+    <t>Praktikum - Junior Logistics Analyst / Data Science / Logistik (m</t>
   </si>
   <si>
     <t>Jobsier.co - Dein kostenfreies Job Portal in Deutschland</t>
@@ -136,19 +127,16 @@
     <t>JobNinja - Mit einem Click zum neuen Job!</t>
   </si>
   <si>
+    <t>fair parken GmbH</t>
+  </si>
+  <si>
+    <t>Gute-Jobs.de</t>
+  </si>
+  <si>
+    <t>HeyJobs</t>
+  </si>
+  <si>
     <t>my-perfect-job.de</t>
-  </si>
-  <si>
-    <t>beeline Concessions GmbH</t>
-  </si>
-  <si>
-    <t>Stellenanzeigen.de GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>HeyJobs</t>
-  </si>
-  <si>
-    <t>Gute-Jobs.de</t>
   </si>
 </sst>
 </file>
@@ -506,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -551,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,16 +553,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,16 +570,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -599,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -636,13 +624,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -653,13 +641,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -670,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -684,16 +672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,16 +689,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -721,30 +709,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
